--- a/resultados/pretratamiento-tablas-control/pretrat-francia-elo-facil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-francia-elo-facil-dificultad.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1081">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>49.727 (99)</t>
   </si>
   <si>
-    <t>9.707 (99)</t>
+    <t>9.697 (99)</t>
   </si>
   <si>
     <t>9.404 (99)</t>
@@ -280,7 +280,7 @@
     <t>50.225 (80)</t>
   </si>
   <si>
-    <t>9.288 (80)</t>
+    <t>9.275 (80)</t>
   </si>
   <si>
     <t>8.925 (80)</t>
@@ -490,7 +490,7 @@
     <t>51.477 (65)</t>
   </si>
   <si>
-    <t>9.031 (65)</t>
+    <t>9.015 (65)</t>
   </si>
   <si>
     <t>8.677 (65)</t>
@@ -691,7 +691,7 @@
     <t>50.837 (49)</t>
   </si>
   <si>
-    <t>9.306 (49)</t>
+    <t>9.286 (49)</t>
   </si>
   <si>
     <t>9.061 (49)</t>
@@ -904,7 +904,7 @@
     <t>50.162 (74)</t>
   </si>
   <si>
-    <t>10.351 (74)</t>
+    <t>10.338 (74)</t>
   </si>
   <si>
     <t>9.473 (74)</t>
@@ -1066,7 +1066,7 @@
     <t>51.094 (53)</t>
   </si>
   <si>
-    <t>9.547 (53)</t>
+    <t>9.528 (53)</t>
   </si>
   <si>
     <t>9.057 (53)</t>
@@ -1276,9 +1276,6 @@
     <t>51.111 (81)</t>
   </si>
   <si>
-    <t>9.37 (81)</t>
-  </si>
-  <si>
     <t>8.556 (81)</t>
   </si>
   <si>
@@ -1480,7 +1477,7 @@
     <t>50.769 (78)</t>
   </si>
   <si>
-    <t>9.987 (78)</t>
+    <t>9.974 (78)</t>
   </si>
   <si>
     <t>9.141 (78)</t>
@@ -1639,7 +1636,7 @@
     <t>51.357 (56)</t>
   </si>
   <si>
-    <t>10.339 (56)</t>
+    <t>10.321 (56)</t>
   </si>
   <si>
     <t>9.607 (56)</t>
@@ -1708,9 +1705,6 @@
     <t>9.919 (74)</t>
   </si>
   <si>
-    <t>10.338 (74)</t>
-  </si>
-  <si>
     <t>0.697 (74)</t>
   </si>
   <si>
@@ -1840,7 +1834,7 @@
     <t>51.6 (40)</t>
   </si>
   <si>
-    <t>9.35 (40)</t>
+    <t>9.325 (40)</t>
   </si>
   <si>
     <t>9.25 (40)</t>
@@ -2095,6 +2089,9 @@
     <t>51.216 (74)</t>
   </si>
   <si>
+    <t>9.459 (74)</t>
+  </si>
+  <si>
     <t>8.878 (74)</t>
   </si>
   <si>
@@ -2320,7 +2317,7 @@
     <t>53.268 (56)</t>
   </si>
   <si>
-    <t>9.446 (56)</t>
+    <t>9.429 (56)</t>
   </si>
   <si>
     <t>8.946 (56)</t>
@@ -2551,7 +2548,7 @@
     <t>53.085 (82)</t>
   </si>
   <si>
-    <t>9.329 (82)</t>
+    <t>9.317 (82)</t>
   </si>
   <si>
     <t>7.78 (82)</t>
@@ -2710,7 +2707,7 @@
     <t>52.435 (69)</t>
   </si>
   <si>
-    <t>9.797 (69)</t>
+    <t>9.783 (69)</t>
   </si>
   <si>
     <t>7.957 (69)</t>
@@ -2962,7 +2959,7 @@
     <t>53.621 (58)</t>
   </si>
   <si>
-    <t>8.776 (58)</t>
+    <t>8.759 (58)</t>
   </si>
   <si>
     <t>7.638 (58)</t>
@@ -3166,7 +3163,7 @@
     <t>54.034 (58)</t>
   </si>
   <si>
-    <t>8.466 (58)</t>
+    <t>8.448 (58)</t>
   </si>
   <si>
     <t>7.414 (58)</t>
@@ -3701,10 +3698,10 @@
         <v>-2.025</v>
       </c>
       <c r="H2">
-        <v>-0.446</v>
+        <v>-0.342</v>
       </c>
       <c r="I2">
-        <v>0.656</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3730,10 +3727,10 @@
         <v>3.38</v>
       </c>
       <c r="H3">
-        <v>0.728</v>
+        <v>0.547</v>
       </c>
       <c r="I3">
-        <v>0.468</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3759,10 +3756,10 @@
         <v>-0.64</v>
       </c>
       <c r="H4">
-        <v>-0.115</v>
+        <v>-0.109</v>
       </c>
       <c r="I4">
-        <v>0.909</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3788,10 +3785,10 @@
         <v>4.778</v>
       </c>
       <c r="H5">
-        <v>1.024</v>
+        <v>1.208</v>
       </c>
       <c r="I5">
-        <v>0.308</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3817,10 +3814,10 @@
         <v>4.022</v>
       </c>
       <c r="H6">
-        <v>0.93</v>
+        <v>1.305</v>
       </c>
       <c r="I6">
-        <v>0.354</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3846,10 +3843,10 @@
         <v>3.33</v>
       </c>
       <c r="H7">
-        <v>0.806</v>
+        <v>0.77</v>
       </c>
       <c r="I7">
-        <v>0.422</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3872,13 +3869,13 @@
         <v>0.042</v>
       </c>
       <c r="G8">
-        <v>1.025</v>
+        <v>1.053</v>
       </c>
       <c r="H8">
-        <v>0.5629999999999999</v>
+        <v>0.474</v>
       </c>
       <c r="I8">
-        <v>0.574</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3904,10 +3901,10 @@
         <v>-0.972</v>
       </c>
       <c r="H9">
-        <v>-0.532</v>
+        <v>-0.48</v>
       </c>
       <c r="I9">
-        <v>0.596</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3933,7 +3930,7 @@
         <v>-0.315</v>
       </c>
       <c r="H10">
-        <v>-0.152</v>
+        <v>-0.151</v>
       </c>
       <c r="I10">
         <v>0.88</v>
@@ -3962,10 +3959,10 @@
         <v>-2.022</v>
       </c>
       <c r="H11">
-        <v>-1.028</v>
+        <v>-1.119</v>
       </c>
       <c r="I11">
-        <v>0.306</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3991,10 +3988,10 @@
         <v>-0.5669999999999999</v>
       </c>
       <c r="H12">
-        <v>-0.289</v>
+        <v>-0.381</v>
       </c>
       <c r="I12">
-        <v>0.773</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4020,10 +4017,10 @@
         <v>-1.608</v>
       </c>
       <c r="H13">
-        <v>-0.84</v>
+        <v>-0.833</v>
       </c>
       <c r="I13">
-        <v>0.403</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4049,10 +4046,10 @@
         <v>0.037</v>
       </c>
       <c r="H14">
-        <v>1.104</v>
+        <v>0.831</v>
       </c>
       <c r="I14">
-        <v>0.272</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4078,10 +4075,10 @@
         <v>0.032</v>
       </c>
       <c r="H15">
-        <v>0.901</v>
+        <v>0.751</v>
       </c>
       <c r="I15">
-        <v>0.369</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4107,10 +4104,10 @@
         <v>0.015</v>
       </c>
       <c r="H16">
-        <v>0.4</v>
+        <v>0.316</v>
       </c>
       <c r="I16">
-        <v>0.6899999999999999</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4136,10 +4133,10 @@
         <v>-0.015</v>
       </c>
       <c r="H17">
-        <v>-0.429</v>
+        <v>-0.468</v>
       </c>
       <c r="I17">
-        <v>0.669</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4165,10 +4162,10 @@
         <v>0.017</v>
       </c>
       <c r="H18">
-        <v>0.482</v>
+        <v>0.302</v>
       </c>
       <c r="I18">
-        <v>0.631</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4194,10 +4191,10 @@
         <v>-0.002</v>
       </c>
       <c r="H19">
-        <v>-0.07199999999999999</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="I19">
-        <v>0.9429999999999999</v>
+        <v>0.945</v>
       </c>
     </row>
   </sheetData>
@@ -4262,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -4283,10 +4280,10 @@
         <v>-2.292</v>
       </c>
       <c r="I2">
-        <v>-0.438</v>
+        <v>-0.385</v>
       </c>
       <c r="J2">
-        <v>0.662</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4294,16 +4291,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -4315,10 +4312,10 @@
         <v>3.645</v>
       </c>
       <c r="I3">
-        <v>0.6870000000000001</v>
+        <v>0.928</v>
       </c>
       <c r="J3">
-        <v>0.493</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4326,16 +4323,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F4">
         <v>150</v>
@@ -4347,10 +4344,10 @@
         <v>4.362</v>
       </c>
       <c r="I4">
-        <v>0.73</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="J4">
-        <v>0.467</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4358,16 +4355,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F5">
         <v>150</v>
@@ -4379,10 +4376,10 @@
         <v>2.982</v>
       </c>
       <c r="I5">
-        <v>0.5629999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="J5">
-        <v>0.575</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4390,16 +4387,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F6">
         <v>150</v>
@@ -4411,10 +4408,10 @@
         <v>-3.142</v>
       </c>
       <c r="I6">
-        <v>-0.621</v>
+        <v>-0.636</v>
       </c>
       <c r="J6">
-        <v>0.536</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4422,16 +4419,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -4443,10 +4440,10 @@
         <v>-0.471</v>
       </c>
       <c r="I7">
-        <v>-0.097</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="J7">
-        <v>0.923</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4454,16 +4451,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F8">
         <v>150</v>
@@ -4472,13 +4469,13 @@
         <v>0.036</v>
       </c>
       <c r="H8">
-        <v>-0.454</v>
+        <v>-0.403</v>
       </c>
       <c r="I8">
-        <v>-0.219</v>
+        <v>-0.159</v>
       </c>
       <c r="J8">
-        <v>0.827</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4486,16 +4483,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F9">
         <v>150</v>
@@ -4507,10 +4504,10 @@
         <v>-2.186</v>
       </c>
       <c r="I9">
-        <v>-1.115</v>
+        <v>-1.435</v>
       </c>
       <c r="J9">
-        <v>0.267</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4518,16 +4515,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F10">
         <v>150</v>
@@ -4539,10 +4536,10 @@
         <v>-2.154</v>
       </c>
       <c r="I10">
-        <v>-0.955</v>
+        <v>-0.71</v>
       </c>
       <c r="J10">
-        <v>0.342</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4550,16 +4547,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F11">
         <v>150</v>
@@ -4571,10 +4568,10 @@
         <v>-2.494</v>
       </c>
       <c r="I11">
-        <v>-1.139</v>
+        <v>-1.125</v>
       </c>
       <c r="J11">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4582,16 +4579,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F12">
         <v>150</v>
@@ -4603,10 +4600,10 @@
         <v>2.032</v>
       </c>
       <c r="I12">
-        <v>0.898</v>
+        <v>0.984</v>
       </c>
       <c r="J12">
-        <v>0.371</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4614,16 +4611,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F13">
         <v>150</v>
@@ -4635,10 +4632,10 @@
         <v>0.2</v>
       </c>
       <c r="I13">
-        <v>0.089</v>
+        <v>0.102</v>
       </c>
       <c r="J13">
-        <v>0.93</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4646,16 +4643,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C14" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -4667,10 +4664,10 @@
         <v>0.041</v>
       </c>
       <c r="I14">
-        <v>1.061</v>
+        <v>0.974</v>
       </c>
       <c r="J14">
-        <v>0.291</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4678,16 +4675,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D15" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F15">
         <v>150</v>
@@ -4699,10 +4696,10 @@
         <v>0.06</v>
       </c>
       <c r="I15">
-        <v>1.498</v>
+        <v>2.425</v>
       </c>
       <c r="J15">
-        <v>0.137</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4710,16 +4707,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C16" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F16">
         <v>150</v>
@@ -4731,10 +4728,10 @@
         <v>-0.013</v>
       </c>
       <c r="I16">
-        <v>-0.305</v>
+        <v>-0.283</v>
       </c>
       <c r="J16">
-        <v>0.761</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4742,16 +4739,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F17">
         <v>150</v>
@@ -4763,10 +4760,10 @@
         <v>-0.029</v>
       </c>
       <c r="I17">
-        <v>-0.695</v>
+        <v>-0.447</v>
       </c>
       <c r="J17">
-        <v>0.488</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4774,16 +4771,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F18">
         <v>150</v>
@@ -4795,10 +4792,10 @@
         <v>0.041</v>
       </c>
       <c r="I18">
-        <v>1.04</v>
+        <v>0.719</v>
       </c>
       <c r="J18">
-        <v>0.301</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4806,16 +4803,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F19">
         <v>150</v>
@@ -4827,10 +4824,10 @@
         <v>0.04</v>
       </c>
       <c r="I19">
-        <v>1.062</v>
+        <v>0.963</v>
       </c>
       <c r="J19">
-        <v>0.291</v>
+        <v>0.336</v>
       </c>
     </row>
   </sheetData>
@@ -4899,16 +4896,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F2" t="s">
         <v>135</v>
@@ -4923,10 +4920,10 @@
         <v>-1.736</v>
       </c>
       <c r="J2">
-        <v>-0.288</v>
+        <v>-0.231</v>
       </c>
       <c r="K2">
-        <v>0.774</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4934,16 +4931,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F3" t="s">
         <v>135</v>
@@ -4958,10 +4955,10 @@
         <v>3.065</v>
       </c>
       <c r="J3">
-        <v>0.501</v>
+        <v>0.603</v>
       </c>
       <c r="K3">
-        <v>0.617</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4969,19 +4966,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -4993,10 +4990,10 @@
         <v>10.307</v>
       </c>
       <c r="J4">
-        <v>1.509</v>
+        <v>1.214</v>
       </c>
       <c r="K4">
-        <v>0.134</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5004,19 +5001,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -5028,7 +5025,7 @@
         <v>0.075</v>
       </c>
       <c r="J5">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="K5">
         <v>0.99</v>
@@ -5039,16 +5036,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F6" t="s">
         <v>132</v>
@@ -5063,10 +5060,10 @@
         <v>-5.255</v>
       </c>
       <c r="J6">
-        <v>-0.903</v>
+        <v>-0.868</v>
       </c>
       <c r="K6">
-        <v>0.368</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5074,19 +5071,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -5098,10 +5095,10 @@
         <v>-4.846</v>
       </c>
       <c r="J7">
-        <v>-0.865</v>
+        <v>-0.655</v>
       </c>
       <c r="K7">
-        <v>0.389</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5109,16 +5106,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>686</v>
       </c>
       <c r="D8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F8" t="s">
         <v>138</v>
@@ -5130,13 +5127,13 @@
         <v>0.027</v>
       </c>
       <c r="I8">
-        <v>-0.876</v>
+        <v>-0.866</v>
       </c>
       <c r="J8">
-        <v>-0.368</v>
+        <v>-0.312</v>
       </c>
       <c r="K8">
-        <v>0.714</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5144,19 +5141,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G9">
         <v>150</v>
@@ -5168,10 +5165,10 @@
         <v>-1.798</v>
       </c>
       <c r="J9">
-        <v>-0.794</v>
+        <v>-0.979</v>
       </c>
       <c r="K9">
-        <v>0.429</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5179,16 +5176,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F10" t="s">
         <v>137</v>
@@ -5203,10 +5200,10 @@
         <v>-4.515</v>
       </c>
       <c r="J10">
-        <v>-1.753</v>
+        <v>-1.457</v>
       </c>
       <c r="K10">
-        <v>0.082</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5214,19 +5211,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -5238,10 +5235,10 @@
         <v>-1.102</v>
       </c>
       <c r="J11">
-        <v>-0.435</v>
+        <v>-0.532</v>
       </c>
       <c r="K11">
-        <v>0.665</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5249,16 +5246,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F12" t="s">
         <v>136</v>
@@ -5273,10 +5270,10 @@
         <v>3.116</v>
       </c>
       <c r="J12">
-        <v>1.199</v>
+        <v>1.082</v>
       </c>
       <c r="K12">
-        <v>0.233</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5284,16 +5281,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C13" t="s">
         <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F13" t="s">
         <v>136</v>
@@ -5308,10 +5305,10 @@
         <v>3.469</v>
       </c>
       <c r="J13">
-        <v>1.347</v>
+        <v>1.276</v>
       </c>
       <c r="K13">
-        <v>0.181</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5319,19 +5316,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -5343,10 +5340,10 @@
         <v>0.058</v>
       </c>
       <c r="J14">
-        <v>1.317</v>
+        <v>1.108</v>
       </c>
       <c r="K14">
-        <v>0.191</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5354,19 +5351,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G15">
         <v>150</v>
@@ -5378,10 +5375,10 @@
         <v>0.056</v>
       </c>
       <c r="J15">
-        <v>1.206</v>
+        <v>1.958</v>
       </c>
       <c r="K15">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5389,19 +5386,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C16" t="s">
         <v>299</v>
       </c>
       <c r="D16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G16">
         <v>150</v>
@@ -5413,10 +5410,10 @@
         <v>-0.003</v>
       </c>
       <c r="J16">
-        <v>-0.054</v>
+        <v>-0.049</v>
       </c>
       <c r="K16">
-        <v>0.957</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5424,19 +5421,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G17">
         <v>150</v>
@@ -5448,10 +5445,10 @@
         <v>-0.018</v>
       </c>
       <c r="J17">
-        <v>-0.383</v>
+        <v>-0.24</v>
       </c>
       <c r="K17">
-        <v>0.703</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5459,19 +5456,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C18" t="s">
         <v>302</v>
       </c>
       <c r="D18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G18">
         <v>150</v>
@@ -5483,10 +5480,10 @@
         <v>0.062</v>
       </c>
       <c r="J18">
-        <v>1.371</v>
+        <v>0.873</v>
       </c>
       <c r="K18">
-        <v>0.173</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5494,19 +5491,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G19">
         <v>150</v>
@@ -5518,10 +5515,10 @@
         <v>0.062</v>
       </c>
       <c r="J19">
-        <v>1.408</v>
+        <v>1.312</v>
       </c>
       <c r="K19">
-        <v>0.162</v>
+        <v>0.189</v>
       </c>
     </row>
   </sheetData>
@@ -5590,19 +5587,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -5614,10 +5611,10 @@
         <v>4.572</v>
       </c>
       <c r="J2">
-        <v>0.681</v>
+        <v>0.555</v>
       </c>
       <c r="K2">
-        <v>0.498</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5625,19 +5622,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G3">
         <v>150</v>
@@ -5649,10 +5646,10 @@
         <v>12.167</v>
       </c>
       <c r="J3">
-        <v>1.809</v>
+        <v>1.664</v>
       </c>
       <c r="K3">
-        <v>0.073</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5660,16 +5657,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F4" t="s">
         <v>197</v>
@@ -5684,10 +5681,10 @@
         <v>11.77</v>
       </c>
       <c r="J4">
-        <v>1.547</v>
+        <v>1.333</v>
       </c>
       <c r="K4">
-        <v>0.125</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5695,19 +5692,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G5">
         <v>150</v>
@@ -5719,10 +5716,10 @@
         <v>-0.327</v>
       </c>
       <c r="J5">
-        <v>-0.048</v>
+        <v>-0.05</v>
       </c>
       <c r="K5">
-        <v>0.962</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5730,19 +5727,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G6">
         <v>150</v>
@@ -5754,10 +5751,10 @@
         <v>-3.094</v>
       </c>
       <c r="J6">
-        <v>-0.476</v>
+        <v>-0.45</v>
       </c>
       <c r="K6">
-        <v>0.635</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5765,19 +5762,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -5789,10 +5786,10 @@
         <v>-5.992</v>
       </c>
       <c r="J7">
-        <v>-0.961</v>
+        <v>-0.64</v>
       </c>
       <c r="K7">
-        <v>0.339</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5800,16 +5797,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F8" t="s">
         <v>207</v>
@@ -5821,13 +5818,13 @@
         <v>0.021</v>
       </c>
       <c r="I8">
-        <v>-1.742</v>
+        <v>-1.713</v>
       </c>
       <c r="J8">
-        <v>-0.657</v>
+        <v>-0.57</v>
       </c>
       <c r="K8">
-        <v>0.513</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5835,16 +5832,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F9" t="s">
         <v>205</v>
@@ -5859,10 +5856,10 @@
         <v>-4.099</v>
       </c>
       <c r="J9">
-        <v>-1.638</v>
+        <v>-1.803</v>
       </c>
       <c r="K9">
-        <v>0.104</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5870,16 +5867,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F10" t="s">
         <v>205</v>
@@ -5894,10 +5891,10 @@
         <v>-5.506</v>
       </c>
       <c r="J10">
-        <v>-1.923</v>
+        <v>-1.642</v>
       </c>
       <c r="K10">
-        <v>0.057</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5905,16 +5902,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F11" t="s">
         <v>204</v>
@@ -5929,10 +5926,10 @@
         <v>-2.051</v>
       </c>
       <c r="J11">
-        <v>-0.727</v>
+        <v>-0.851</v>
       </c>
       <c r="K11">
-        <v>0.469</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5940,19 +5937,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -5964,10 +5961,10 @@
         <v>2.751</v>
       </c>
       <c r="J12">
-        <v>0.947</v>
+        <v>0.822</v>
       </c>
       <c r="K12">
-        <v>0.346</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5975,19 +5972,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G13">
         <v>150</v>
@@ -5999,10 +5996,10 @@
         <v>3.981</v>
       </c>
       <c r="J13">
-        <v>1.387</v>
+        <v>1.109</v>
       </c>
       <c r="K13">
-        <v>0.168</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6010,19 +6007,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -6034,10 +6031,10 @@
         <v>0.103</v>
       </c>
       <c r="J14">
-        <v>2.109</v>
+        <v>1.932</v>
       </c>
       <c r="K14">
-        <v>0.037</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6045,19 +6042,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
       </c>
       <c r="F15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G15">
         <v>150</v>
@@ -6069,10 +6066,10 @@
         <v>0.057</v>
       </c>
       <c r="J15">
-        <v>1.102</v>
+        <v>1.696</v>
       </c>
       <c r="K15">
-        <v>0.273</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6080,19 +6077,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G16">
         <v>150</v>
@@ -6104,10 +6101,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J16">
-        <v>-0.16</v>
+        <v>-0.187</v>
       </c>
       <c r="K16">
-        <v>0.873</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6115,19 +6112,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G17">
         <v>150</v>
@@ -6139,10 +6136,10 @@
         <v>0.02</v>
       </c>
       <c r="J17">
-        <v>0.377</v>
+        <v>0.253</v>
       </c>
       <c r="K17">
-        <v>0.707</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6150,19 +6147,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G18">
         <v>150</v>
@@ -6174,10 +6171,10 @@
         <v>0.055</v>
       </c>
       <c r="J18">
-        <v>1.085</v>
+        <v>0.821</v>
       </c>
       <c r="K18">
-        <v>0.28</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6185,19 +6182,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G19">
         <v>150</v>
@@ -6209,10 +6206,10 @@
         <v>0.074</v>
       </c>
       <c r="J19">
-        <v>1.511</v>
+        <v>1.71</v>
       </c>
       <c r="K19">
-        <v>0.134</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6277,16 +6274,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F2">
         <v>140</v>
@@ -6298,10 +6295,10 @@
         <v>1.368</v>
       </c>
       <c r="I2">
-        <v>0.296</v>
+        <v>0.229</v>
       </c>
       <c r="J2">
-        <v>0.768</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6309,16 +6306,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F3">
         <v>140</v>
@@ -6330,10 +6327,10 @@
         <v>4.411</v>
       </c>
       <c r="I3">
-        <v>0.964</v>
+        <v>0.945</v>
       </c>
       <c r="J3">
-        <v>0.337</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6341,16 +6338,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F4">
         <v>140</v>
@@ -6362,10 +6359,10 @@
         <v>5.928</v>
       </c>
       <c r="I4">
-        <v>1.172</v>
+        <v>0.738</v>
       </c>
       <c r="J4">
-        <v>0.244</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6373,13 +6370,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E5" t="s">
         <v>197</v>
@@ -6394,10 +6391,10 @@
         <v>2.559</v>
       </c>
       <c r="I5">
-        <v>0.5590000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="J5">
-        <v>0.578</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6405,16 +6402,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F6">
         <v>140</v>
@@ -6426,10 +6423,10 @@
         <v>0.303</v>
       </c>
       <c r="I6">
-        <v>0.067</v>
+        <v>0.082</v>
       </c>
       <c r="J6">
-        <v>0.946</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6437,16 +6434,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F7">
         <v>140</v>
@@ -6458,10 +6455,10 @@
         <v>-2.736</v>
       </c>
       <c r="I7">
-        <v>-0.646</v>
+        <v>-0.57</v>
       </c>
       <c r="J7">
-        <v>0.52</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6469,13 +6466,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E8" t="s">
         <v>202</v>
@@ -6487,13 +6484,13 @@
         <v>0.051</v>
       </c>
       <c r="H8">
-        <v>-1.521</v>
+        <v>-1.515</v>
       </c>
       <c r="I8">
-        <v>-0.85</v>
+        <v>-0.616</v>
       </c>
       <c r="J8">
-        <v>0.397</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6501,16 +6498,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F9">
         <v>140</v>
@@ -6522,10 +6519,10 @@
         <v>-2.484</v>
       </c>
       <c r="I9">
-        <v>-1.523</v>
+        <v>-1.558</v>
       </c>
       <c r="J9">
-        <v>0.131</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6533,16 +6530,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F10">
         <v>140</v>
@@ -6554,10 +6551,10 @@
         <v>-2.579</v>
       </c>
       <c r="I10">
-        <v>-1.398</v>
+        <v>-0.906</v>
       </c>
       <c r="J10">
-        <v>0.165</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6565,13 +6562,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E11" t="s">
         <v>205</v>
@@ -6586,10 +6583,10 @@
         <v>-1.521</v>
       </c>
       <c r="I11">
-        <v>-0.821</v>
+        <v>-1.033</v>
       </c>
       <c r="J11">
-        <v>0.414</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6597,16 +6594,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F12">
         <v>140</v>
@@ -6618,10 +6615,10 @@
         <v>0.699</v>
       </c>
       <c r="I12">
-        <v>0.351</v>
+        <v>0.491</v>
       </c>
       <c r="J12">
-        <v>0.726</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6629,16 +6626,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F13">
         <v>140</v>
@@ -6650,10 +6647,10 @@
         <v>2.009</v>
       </c>
       <c r="I13">
-        <v>1.046</v>
+        <v>0.964</v>
       </c>
       <c r="J13">
-        <v>0.298</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6661,16 +6658,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F14">
         <v>140</v>
@@ -6682,10 +6679,10 @@
         <v>0.058</v>
       </c>
       <c r="I14">
-        <v>1.794</v>
+        <v>2.039</v>
       </c>
       <c r="J14">
-        <v>0.076</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6693,16 +6690,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F15">
         <v>140</v>
@@ -6714,10 +6711,10 @@
         <v>0.03</v>
       </c>
       <c r="I15">
-        <v>0.856</v>
+        <v>0.83</v>
       </c>
       <c r="J15">
-        <v>0.394</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6725,16 +6722,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D16" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F16">
         <v>140</v>
@@ -6746,10 +6743,10 @@
         <v>-0.024</v>
       </c>
       <c r="I16">
-        <v>-0.655</v>
+        <v>-0.555</v>
       </c>
       <c r="J16">
-        <v>0.514</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6757,16 +6754,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F17">
         <v>140</v>
@@ -6778,10 +6775,10 @@
         <v>-0.014</v>
       </c>
       <c r="I17">
-        <v>-0.388</v>
+        <v>-0.3</v>
       </c>
       <c r="J17">
-        <v>0.698</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6789,16 +6786,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F18">
         <v>140</v>
@@ -6810,10 +6807,10 @@
         <v>0.042</v>
       </c>
       <c r="I18">
-        <v>1.214</v>
+        <v>0.888</v>
       </c>
       <c r="J18">
-        <v>0.228</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6821,16 +6818,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F19">
         <v>140</v>
@@ -6842,10 +6839,10 @@
         <v>0.023</v>
       </c>
       <c r="I19">
-        <v>0.6889999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="J19">
-        <v>0.493</v>
+        <v>0.534</v>
       </c>
     </row>
   </sheetData>
@@ -6910,16 +6907,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F2">
         <v>140</v>
@@ -6931,10 +6928,10 @@
         <v>-0.534</v>
       </c>
       <c r="I2">
-        <v>-0.094</v>
+        <v>-0.089</v>
       </c>
       <c r="J2">
-        <v>0.925</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6942,16 +6939,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F3">
         <v>140</v>
@@ -6963,10 +6960,10 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="I3">
-        <v>0.122</v>
+        <v>0.161</v>
       </c>
       <c r="J3">
-        <v>0.903</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6974,16 +6971,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F4">
         <v>140</v>
@@ -6995,10 +6992,10 @@
         <v>8.09</v>
       </c>
       <c r="I4">
-        <v>1.309</v>
+        <v>0.834</v>
       </c>
       <c r="J4">
-        <v>0.194</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7006,16 +7003,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F5">
         <v>140</v>
@@ -7027,10 +7024,10 @@
         <v>-1.468</v>
       </c>
       <c r="I5">
-        <v>-0.261</v>
+        <v>-0.242</v>
       </c>
       <c r="J5">
-        <v>0.794</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7038,16 +7035,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F6">
         <v>140</v>
@@ -7059,10 +7056,10 @@
         <v>-3.659</v>
       </c>
       <c r="I6">
-        <v>-0.668</v>
+        <v>-0.649</v>
       </c>
       <c r="J6">
-        <v>0.506</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7070,16 +7067,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F7">
         <v>140</v>
@@ -7091,10 +7088,10 @@
         <v>1.248</v>
       </c>
       <c r="I7">
-        <v>0.24</v>
+        <v>0.209</v>
       </c>
       <c r="J7">
-        <v>0.8110000000000001</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7102,16 +7099,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F8">
         <v>140</v>
@@ -7120,13 +7117,13 @@
         <v>0.035</v>
       </c>
       <c r="H8">
-        <v>-1.526</v>
+        <v>-1.516</v>
       </c>
       <c r="I8">
-        <v>-0.696</v>
+        <v>-0.585</v>
       </c>
       <c r="J8">
-        <v>0.488</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7134,16 +7131,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F9">
         <v>140</v>
@@ -7155,10 +7152,10 @@
         <v>-1.654</v>
       </c>
       <c r="I9">
-        <v>-0.822</v>
+        <v>-1.112</v>
       </c>
       <c r="J9">
-        <v>0.413</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7166,16 +7163,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F10">
         <v>140</v>
@@ -7187,10 +7184,10 @@
         <v>-3.665</v>
       </c>
       <c r="I10">
-        <v>-1.628</v>
+        <v>-1.098</v>
       </c>
       <c r="J10">
-        <v>0.107</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7198,16 +7195,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F11">
         <v>140</v>
@@ -7219,10 +7216,10 @@
         <v>-0.662</v>
       </c>
       <c r="I11">
-        <v>-0.291</v>
+        <v>-0.262</v>
       </c>
       <c r="J11">
-        <v>0.772</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7230,16 +7227,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F12">
         <v>140</v>
@@ -7251,10 +7248,10 @@
         <v>2.551</v>
       </c>
       <c r="I12">
-        <v>1.051</v>
+        <v>1.229</v>
       </c>
       <c r="J12">
-        <v>0.296</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7262,16 +7259,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F13">
         <v>140</v>
@@ -7283,10 +7280,10 @@
         <v>-0.274</v>
       </c>
       <c r="I13">
-        <v>-0.116</v>
+        <v>-0.127</v>
       </c>
       <c r="J13">
-        <v>0.908</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7294,16 +7291,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F14">
         <v>140</v>
@@ -7315,10 +7312,10 @@
         <v>0.017</v>
       </c>
       <c r="I14">
-        <v>0.413</v>
+        <v>0.421</v>
       </c>
       <c r="J14">
-        <v>0.68</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7326,16 +7323,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F15">
         <v>140</v>
@@ -7347,10 +7344,10 @@
         <v>0.008</v>
       </c>
       <c r="I15">
-        <v>0.179</v>
+        <v>0.189</v>
       </c>
       <c r="J15">
-        <v>0.859</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7358,16 +7355,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C16" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F16">
         <v>140</v>
@@ -7379,10 +7376,10 @@
         <v>-0.033</v>
       </c>
       <c r="I16">
-        <v>-0.751</v>
+        <v>-0.596</v>
       </c>
       <c r="J16">
-        <v>0.455</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7390,16 +7387,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F17">
         <v>140</v>
@@ -7411,10 +7408,10 @@
         <v>-0.031</v>
       </c>
       <c r="I17">
-        <v>-0.6889999999999999</v>
+        <v>-0.431</v>
       </c>
       <c r="J17">
-        <v>0.493</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7422,16 +7419,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F18">
         <v>140</v>
@@ -7443,10 +7440,10 @@
         <v>0.056</v>
       </c>
       <c r="I18">
-        <v>1.302</v>
+        <v>0.912</v>
       </c>
       <c r="J18">
-        <v>0.196</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7454,16 +7451,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F19">
         <v>140</v>
@@ -7475,10 +7472,10 @@
         <v>0.034</v>
       </c>
       <c r="I19">
-        <v>0.849</v>
+        <v>0.865</v>
       </c>
       <c r="J19">
-        <v>0.398</v>
+        <v>0.387</v>
       </c>
     </row>
   </sheetData>
@@ -7547,16 +7544,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F2" t="s">
         <v>135</v>
@@ -7571,10 +7568,10 @@
         <v>1.455</v>
       </c>
       <c r="J2">
-        <v>0.224</v>
+        <v>0.204</v>
       </c>
       <c r="K2">
-        <v>0.823</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7582,16 +7579,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F3" t="s">
         <v>135</v>
@@ -7606,10 +7603,10 @@
         <v>1.368</v>
       </c>
       <c r="J3">
-        <v>0.212</v>
+        <v>0.313</v>
       </c>
       <c r="K3">
-        <v>0.833</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7617,19 +7614,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G4">
         <v>140</v>
@@ -7641,10 +7638,10 @@
         <v>15.207</v>
       </c>
       <c r="J4">
-        <v>2.173</v>
+        <v>1.406</v>
       </c>
       <c r="K4">
-        <v>0.032</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7652,19 +7649,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G5">
         <v>140</v>
@@ -7676,10 +7673,10 @@
         <v>-5.519</v>
       </c>
       <c r="J5">
-        <v>-0.859</v>
+        <v>-0.857</v>
       </c>
       <c r="K5">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7687,16 +7684,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F6" t="s">
         <v>132</v>
@@ -7711,10 +7708,10 @@
         <v>-7.954</v>
       </c>
       <c r="J6">
-        <v>-1.272</v>
+        <v>-1.224</v>
       </c>
       <c r="K6">
-        <v>0.206</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7722,19 +7719,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G7">
         <v>140</v>
@@ -7746,10 +7743,10 @@
         <v>-2.392</v>
       </c>
       <c r="J7">
-        <v>-0.402</v>
+        <v>-0.383</v>
       </c>
       <c r="K7">
-        <v>0.6889999999999999</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7757,16 +7754,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F8" t="s">
         <v>138</v>
@@ -7778,13 +7775,13 @@
         <v>0.026</v>
       </c>
       <c r="I8">
-        <v>-2.389</v>
+        <v>-2.433</v>
       </c>
       <c r="J8">
-        <v>-0.951</v>
+        <v>-0.839</v>
       </c>
       <c r="K8">
-        <v>0.344</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7792,19 +7789,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G9">
         <v>140</v>
@@ -7816,10 +7813,10 @@
         <v>-2.104</v>
       </c>
       <c r="J9">
-        <v>-0.912</v>
+        <v>-1.287</v>
       </c>
       <c r="K9">
-        <v>0.364</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7830,13 +7827,13 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E10" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F10" t="s">
         <v>137</v>
@@ -7851,10 +7848,10 @@
         <v>-5.524</v>
       </c>
       <c r="J10">
-        <v>-2.157</v>
+        <v>-1.499</v>
       </c>
       <c r="K10">
-        <v>0.033</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7862,19 +7859,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G11">
         <v>140</v>
@@ -7886,10 +7883,10 @@
         <v>1.444</v>
       </c>
       <c r="J11">
-        <v>0.553</v>
+        <v>0.646</v>
       </c>
       <c r="K11">
-        <v>0.581</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7897,16 +7894,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F12" t="s">
         <v>136</v>
@@ -7921,10 +7918,10 @@
         <v>4.095</v>
       </c>
       <c r="J12">
-        <v>1.478</v>
+        <v>1.474</v>
       </c>
       <c r="K12">
-        <v>0.142</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7932,16 +7929,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F13" t="s">
         <v>136</v>
@@ -7956,10 +7953,10 @@
         <v>2.704</v>
       </c>
       <c r="J13">
-        <v>1.001</v>
+        <v>1.15</v>
       </c>
       <c r="K13">
-        <v>0.319</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7967,19 +7964,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G14">
         <v>140</v>
@@ -7991,10 +7988,10 @@
         <v>0.047</v>
       </c>
       <c r="J14">
-        <v>1.021</v>
+        <v>1.06</v>
       </c>
       <c r="K14">
-        <v>0.31</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8002,19 +7999,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E15" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G15">
         <v>140</v>
@@ -8026,10 +8023,10 @@
         <v>0.006</v>
       </c>
       <c r="J15">
-        <v>0.114</v>
+        <v>0.187</v>
       </c>
       <c r="K15">
-        <v>0.909</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8037,19 +8034,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E16" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G16">
         <v>140</v>
@@ -8061,10 +8058,10 @@
         <v>-0.028</v>
       </c>
       <c r="J16">
-        <v>-0.545</v>
+        <v>-0.43</v>
       </c>
       <c r="K16">
-        <v>0.587</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8072,19 +8069,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G17">
         <v>140</v>
@@ -8096,10 +8093,10 @@
         <v>-0.034</v>
       </c>
       <c r="J17">
-        <v>-0.659</v>
+        <v>-0.391</v>
       </c>
       <c r="K17">
-        <v>0.511</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8107,19 +8104,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G18">
         <v>140</v>
@@ -8131,10 +8128,10 @@
         <v>0.061</v>
       </c>
       <c r="J18">
-        <v>1.249</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K18">
-        <v>0.214</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8142,19 +8139,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G19">
         <v>140</v>
@@ -8166,10 +8163,10 @@
         <v>0.054</v>
       </c>
       <c r="J19">
-        <v>1.186</v>
+        <v>1.449</v>
       </c>
       <c r="K19">
-        <v>0.238</v>
+        <v>0.147</v>
       </c>
     </row>
   </sheetData>
@@ -8238,19 +8235,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G2">
         <v>140</v>
@@ -8262,10 +8259,10 @@
         <v>9.789</v>
       </c>
       <c r="J2">
-        <v>1.385</v>
+        <v>1.552</v>
       </c>
       <c r="K2">
-        <v>0.169</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8273,16 +8270,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F3" t="s">
         <v>271</v>
@@ -8297,10 +8294,10 @@
         <v>9.625999999999999</v>
       </c>
       <c r="J3">
-        <v>1.371</v>
+        <v>1.213</v>
       </c>
       <c r="K3">
-        <v>0.173</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8308,19 +8305,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G4">
         <v>140</v>
@@ -8332,10 +8329,10 @@
         <v>16.113</v>
       </c>
       <c r="J4">
-        <v>2.097</v>
+        <v>1.63</v>
       </c>
       <c r="K4">
-        <v>0.038</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8343,19 +8340,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G5">
         <v>140</v>
@@ -8367,10 +8364,10 @@
         <v>-4.488</v>
       </c>
       <c r="J5">
-        <v>-0.636</v>
+        <v>-0.66</v>
       </c>
       <c r="K5">
-        <v>0.526</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8378,19 +8375,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E6" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G6">
         <v>140</v>
@@ -8402,10 +8399,10 @@
         <v>-5.392</v>
       </c>
       <c r="J6">
-        <v>-0.783</v>
+        <v>-0.771</v>
       </c>
       <c r="K6">
-        <v>0.435</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8413,19 +8410,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G7">
         <v>140</v>
@@ -8437,10 +8434,10 @@
         <v>-4.591</v>
       </c>
       <c r="J7">
-        <v>-0.704</v>
+        <v>-0.579</v>
       </c>
       <c r="K7">
-        <v>0.483</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8448,19 +8445,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E8" t="s">
         <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G8">
         <v>140</v>
@@ -8469,13 +8466,13 @@
         <v>0.021</v>
       </c>
       <c r="I8">
-        <v>-4.304</v>
+        <v>-4.325</v>
       </c>
       <c r="J8">
-        <v>-1.574</v>
+        <v>-1.54</v>
       </c>
       <c r="K8">
-        <v>0.118</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8483,19 +8480,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G9">
         <v>140</v>
@@ -8507,10 +8504,10 @@
         <v>-4.354</v>
       </c>
       <c r="J9">
-        <v>-1.739</v>
+        <v>-1.68</v>
       </c>
       <c r="K9">
-        <v>0.08500000000000001</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8518,19 +8515,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E10" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F10" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G10">
         <v>140</v>
@@ -8542,10 +8539,10 @@
         <v>-6.227</v>
       </c>
       <c r="J10">
-        <v>-2.221</v>
+        <v>-1.698</v>
       </c>
       <c r="K10">
-        <v>0.028</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8553,19 +8550,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G11">
         <v>140</v>
@@ -8577,10 +8574,10 @@
         <v>-0.181</v>
       </c>
       <c r="J11">
-        <v>-0.063</v>
+        <v>-0.075</v>
       </c>
       <c r="K11">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8588,19 +8585,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G12">
         <v>140</v>
@@ -8612,10 +8609,10 @@
         <v>3.552</v>
       </c>
       <c r="J12">
-        <v>1.165</v>
+        <v>1.239</v>
       </c>
       <c r="K12">
-        <v>0.247</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8623,19 +8620,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G13">
         <v>140</v>
@@ -8647,10 +8644,10 @@
         <v>3.807</v>
       </c>
       <c r="J13">
-        <v>1.29</v>
+        <v>1.226</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8658,19 +8655,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G14">
         <v>140</v>
@@ -8682,10 +8679,10 @@
         <v>0.112</v>
       </c>
       <c r="J14">
-        <v>2.261</v>
+        <v>3.175</v>
       </c>
       <c r="K14">
-        <v>0.026</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8693,19 +8690,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E15" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F15" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G15">
         <v>140</v>
@@ -8717,10 +8714,10 @@
         <v>0.005</v>
       </c>
       <c r="J15">
-        <v>0.094</v>
+        <v>0.193</v>
       </c>
       <c r="K15">
-        <v>0.925</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8728,19 +8725,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E16" t="s">
         <v>267</v>
       </c>
       <c r="F16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G16">
         <v>140</v>
@@ -8752,10 +8749,10 @@
         <v>-0.032</v>
       </c>
       <c r="J16">
-        <v>-0.576</v>
+        <v>-0.68</v>
       </c>
       <c r="K16">
-        <v>0.5659999999999999</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8763,19 +8760,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E17" t="s">
         <v>266</v>
       </c>
       <c r="F17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G17">
         <v>140</v>
@@ -8787,10 +8784,10 @@
         <v>-0.01</v>
       </c>
       <c r="J17">
-        <v>-0.177</v>
+        <v>-0.127</v>
       </c>
       <c r="K17">
-        <v>0.86</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8798,19 +8795,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D18" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E18" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F18" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G18">
         <v>140</v>
@@ -8822,10 +8819,10 @@
         <v>0.035</v>
       </c>
       <c r="J18">
-        <v>0.654</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="K18">
-        <v>0.515</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8833,16 +8830,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F19" t="s">
         <v>280</v>
@@ -8857,10 +8854,10 @@
         <v>0.052</v>
       </c>
       <c r="J19">
-        <v>1.04</v>
+        <v>1.611</v>
       </c>
       <c r="K19">
-        <v>0.301</v>
+        <v>0.107</v>
       </c>
     </row>
   </sheetData>
@@ -8946,10 +8943,10 @@
         <v>-3.713</v>
       </c>
       <c r="I2">
-        <v>-0.674</v>
+        <v>-0.507</v>
       </c>
       <c r="J2">
-        <v>0.501</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8978,10 +8975,10 @@
         <v>0.388</v>
       </c>
       <c r="I3">
-        <v>0.06900000000000001</v>
+        <v>0.056</v>
       </c>
       <c r="J3">
-        <v>0.945</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9010,10 +9007,10 @@
         <v>-2.082</v>
       </c>
       <c r="I4">
-        <v>-0.307</v>
+        <v>-0.295</v>
       </c>
       <c r="J4">
-        <v>0.76</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9042,10 +9039,10 @@
         <v>6.159</v>
       </c>
       <c r="I5">
-        <v>1.088</v>
+        <v>1.495</v>
       </c>
       <c r="J5">
-        <v>0.279</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9074,10 +9071,10 @@
         <v>0.747</v>
       </c>
       <c r="I6">
-        <v>0.142</v>
+        <v>0.161</v>
       </c>
       <c r="J6">
-        <v>0.888</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9106,10 +9103,10 @@
         <v>4.641</v>
       </c>
       <c r="I7">
-        <v>0.926</v>
+        <v>0.736</v>
       </c>
       <c r="J7">
-        <v>0.356</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9135,13 +9132,13 @@
         <v>0.03</v>
       </c>
       <c r="H8">
-        <v>1.041</v>
+        <v>1.072</v>
       </c>
       <c r="I8">
-        <v>0.471</v>
+        <v>0.45</v>
       </c>
       <c r="J8">
-        <v>0.639</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9173,7 +9170,7 @@
         <v>-0.007</v>
       </c>
       <c r="J9">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9202,10 +9199,10 @@
         <v>0.708</v>
       </c>
       <c r="I10">
-        <v>0.281</v>
+        <v>0.278</v>
       </c>
       <c r="J10">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9234,10 +9231,10 @@
         <v>-3.731</v>
       </c>
       <c r="I11">
-        <v>-1.571</v>
+        <v>-1.869</v>
       </c>
       <c r="J11">
-        <v>0.119</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9266,10 +9263,10 @@
         <v>0.724</v>
       </c>
       <c r="I12">
-        <v>0.304</v>
+        <v>0.307</v>
       </c>
       <c r="J12">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9298,10 +9295,10 @@
         <v>-2.393</v>
       </c>
       <c r="I13">
-        <v>-1.031</v>
+        <v>-0.948</v>
       </c>
       <c r="J13">
-        <v>0.304</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9330,10 +9327,10 @@
         <v>0.011</v>
       </c>
       <c r="I14">
-        <v>0.266</v>
+        <v>0.228</v>
       </c>
       <c r="J14">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9362,10 +9359,10 @@
         <v>0.024</v>
       </c>
       <c r="I15">
-        <v>0.552</v>
+        <v>0.484</v>
       </c>
       <c r="J15">
-        <v>0.582</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9394,10 +9391,10 @@
         <v>0.036</v>
       </c>
       <c r="I16">
-        <v>0.8090000000000001</v>
+        <v>0.664</v>
       </c>
       <c r="J16">
-        <v>0.42</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9426,10 +9423,10 @@
         <v>-0.004</v>
       </c>
       <c r="I17">
-        <v>-0.094</v>
+        <v>-0.082</v>
       </c>
       <c r="J17">
-        <v>0.925</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9458,10 +9455,10 @@
         <v>0.032</v>
       </c>
       <c r="I18">
-        <v>0.761</v>
+        <v>0.545</v>
       </c>
       <c r="J18">
-        <v>0.448</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9490,10 +9487,10 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>0.502</v>
+        <v>0.499</v>
       </c>
       <c r="J19">
-        <v>0.616</v>
+        <v>0.618</v>
       </c>
     </row>
   </sheetData>
@@ -9579,10 +9576,10 @@
         <v>-7.505</v>
       </c>
       <c r="I2">
-        <v>-1.159</v>
+        <v>-0.929</v>
       </c>
       <c r="J2">
-        <v>0.249</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9611,10 +9608,10 @@
         <v>-2.722</v>
       </c>
       <c r="I3">
-        <v>-0.409</v>
+        <v>-0.481</v>
       </c>
       <c r="J3">
-        <v>0.6830000000000001</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9643,10 +9640,10 @@
         <v>-2.136</v>
       </c>
       <c r="I4">
-        <v>-0.267</v>
+        <v>-0.282</v>
       </c>
       <c r="J4">
-        <v>0.79</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9675,10 +9672,10 @@
         <v>4.407</v>
       </c>
       <c r="I5">
-        <v>0.658</v>
+        <v>0.651</v>
       </c>
       <c r="J5">
-        <v>0.512</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9707,10 +9704,10 @@
         <v>-3.712</v>
       </c>
       <c r="I6">
-        <v>-0.598</v>
+        <v>-0.747</v>
       </c>
       <c r="J6">
-        <v>0.551</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9739,10 +9736,10 @@
         <v>2.82</v>
       </c>
       <c r="I7">
-        <v>0.476</v>
+        <v>0.362</v>
       </c>
       <c r="J7">
-        <v>0.635</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9768,13 +9765,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>1.678</v>
+        <v>1.72</v>
       </c>
       <c r="I8">
-        <v>0.644</v>
+        <v>0.734</v>
       </c>
       <c r="J8">
-        <v>0.521</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9803,10 +9800,10 @@
         <v>1.608</v>
       </c>
       <c r="I9">
-        <v>0.614</v>
+        <v>0.755</v>
       </c>
       <c r="J9">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9835,10 +9832,10 @@
         <v>0.484</v>
       </c>
       <c r="I10">
-        <v>0.163</v>
+        <v>0.181</v>
       </c>
       <c r="J10">
-        <v>0.871</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9867,10 +9864,10 @@
         <v>-2.923</v>
       </c>
       <c r="I11">
-        <v>-1.038</v>
+        <v>-0.998</v>
       </c>
       <c r="J11">
-        <v>0.301</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9899,10 +9896,10 @@
         <v>3.219</v>
       </c>
       <c r="I12">
-        <v>1.15</v>
+        <v>1.192</v>
       </c>
       <c r="J12">
-        <v>0.252</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9931,10 +9928,10 @@
         <v>-0.876</v>
       </c>
       <c r="I13">
-        <v>-0.319</v>
+        <v>-0.289</v>
       </c>
       <c r="J13">
-        <v>0.75</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9963,10 +9960,10 @@
         <v>0.004</v>
       </c>
       <c r="I14">
-        <v>0.08599999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="J14">
-        <v>0.931</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9995,10 +9992,10 @@
         <v>0.015</v>
       </c>
       <c r="I15">
-        <v>0.288</v>
+        <v>0.329</v>
       </c>
       <c r="J15">
-        <v>0.774</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10027,10 +10024,10 @@
         <v>0.031</v>
       </c>
       <c r="I16">
-        <v>0.59</v>
+        <v>0.493</v>
       </c>
       <c r="J16">
-        <v>0.556</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10059,10 +10056,10 @@
         <v>-0.002</v>
       </c>
       <c r="I17">
-        <v>-0.03</v>
+        <v>-0.022</v>
       </c>
       <c r="J17">
-        <v>0.976</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10091,10 +10088,10 @@
         <v>0.048</v>
       </c>
       <c r="I18">
-        <v>0.974</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="J18">
-        <v>0.332</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10123,10 +10120,10 @@
         <v>0.026</v>
       </c>
       <c r="I19">
-        <v>0.553</v>
+        <v>0.483</v>
       </c>
       <c r="J19">
-        <v>0.582</v>
+        <v>0.629</v>
       </c>
     </row>
   </sheetData>
@@ -10212,10 +10209,10 @@
         <v>-1.322</v>
       </c>
       <c r="I2">
-        <v>-0.176</v>
+        <v>-0.131</v>
       </c>
       <c r="J2">
-        <v>0.86</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10244,10 +10241,10 @@
         <v>3.17</v>
       </c>
       <c r="I3">
-        <v>0.413</v>
+        <v>0.48</v>
       </c>
       <c r="J3">
-        <v>0.68</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10276,10 +10273,10 @@
         <v>1.124</v>
       </c>
       <c r="I4">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="J4">
-        <v>0.903</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10308,10 +10305,10 @@
         <v>6.812</v>
       </c>
       <c r="I5">
-        <v>0.883</v>
+        <v>1.017</v>
       </c>
       <c r="J5">
-        <v>0.379</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10340,10 +10337,10 @@
         <v>-4.229</v>
       </c>
       <c r="I6">
-        <v>-0.591</v>
+        <v>-0.741</v>
       </c>
       <c r="J6">
-        <v>0.556</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10372,10 +10369,10 @@
         <v>-0.8070000000000001</v>
       </c>
       <c r="I7">
-        <v>-0.118</v>
+        <v>-0.077</v>
       </c>
       <c r="J7">
-        <v>0.906</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10401,13 +10398,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>1.009</v>
+        <v>1.064</v>
       </c>
       <c r="I8">
-        <v>0.335</v>
+        <v>0.398</v>
       </c>
       <c r="J8">
-        <v>0.738</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10436,10 +10433,10 @@
         <v>1.035</v>
       </c>
       <c r="I9">
-        <v>0.343</v>
+        <v>0.442</v>
       </c>
       <c r="J9">
-        <v>0.732</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10468,10 +10465,10 @@
         <v>-1.402</v>
       </c>
       <c r="I10">
-        <v>-0.41</v>
+        <v>-0.382</v>
       </c>
       <c r="J10">
-        <v>0.6830000000000001</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10500,10 +10497,10 @@
         <v>-5.662</v>
       </c>
       <c r="I11">
-        <v>-1.757</v>
+        <v>-1.657</v>
       </c>
       <c r="J11">
-        <v>0.081</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10532,10 +10529,10 @@
         <v>3.565</v>
       </c>
       <c r="I12">
-        <v>1.105</v>
+        <v>1.125</v>
       </c>
       <c r="J12">
-        <v>0.271</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10564,10 +10561,10 @@
         <v>1.212</v>
       </c>
       <c r="I13">
-        <v>0.383</v>
+        <v>0.28</v>
       </c>
       <c r="J13">
-        <v>0.703</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10596,10 +10593,10 @@
         <v>0.049</v>
       </c>
       <c r="I14">
-        <v>0.894</v>
+        <v>0.888</v>
       </c>
       <c r="J14">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10628,10 +10625,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.123</v>
+        <v>0.183</v>
       </c>
       <c r="J15">
-        <v>0.902</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10660,10 +10657,10 @@
         <v>-0.011</v>
       </c>
       <c r="I16">
-        <v>-0.186</v>
+        <v>-0.15</v>
       </c>
       <c r="J16">
-        <v>0.852</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10692,10 +10689,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I17">
-        <v>-0.154</v>
+        <v>-0.133</v>
       </c>
       <c r="J17">
-        <v>0.878</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10724,10 +10721,10 @@
         <v>0.038</v>
       </c>
       <c r="I18">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="J18">
-        <v>0.504</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10756,10 +10753,10 @@
         <v>0.027</v>
       </c>
       <c r="I19">
-        <v>0.512</v>
+        <v>0.478</v>
       </c>
       <c r="J19">
-        <v>0.609</v>
+        <v>0.633</v>
       </c>
     </row>
   </sheetData>
@@ -10838,10 +10835,10 @@
         <v>1.798</v>
       </c>
       <c r="H2">
-        <v>0.407</v>
+        <v>0.316</v>
       </c>
       <c r="I2">
-        <v>0.6850000000000001</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10867,10 +10864,10 @@
         <v>1.918</v>
       </c>
       <c r="H3">
-        <v>0.426</v>
+        <v>0.359</v>
       </c>
       <c r="I3">
-        <v>0.671</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10896,10 +10893,10 @@
         <v>4.668</v>
       </c>
       <c r="H4">
-        <v>0.893</v>
+        <v>0.707</v>
       </c>
       <c r="I4">
-        <v>0.373</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10925,10 +10922,10 @@
         <v>3.483</v>
       </c>
       <c r="H5">
-        <v>0.775</v>
+        <v>1.352</v>
       </c>
       <c r="I5">
-        <v>0.44</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10954,10 +10951,10 @@
         <v>0.997</v>
       </c>
       <c r="H6">
-        <v>0.236</v>
+        <v>0.341</v>
       </c>
       <c r="I6">
-        <v>0.8139999999999999</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10983,10 +10980,10 @@
         <v>1.269</v>
       </c>
       <c r="H7">
-        <v>0.313</v>
+        <v>0.36</v>
       </c>
       <c r="I7">
-        <v>0.755</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11009,13 +11006,13 @@
         <v>0.048</v>
       </c>
       <c r="G8">
-        <v>-0.984</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="H8">
-        <v>-0.5620000000000001</v>
+        <v>-0.424</v>
       </c>
       <c r="I8">
-        <v>0.575</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11041,10 +11038,10 @@
         <v>-0.514</v>
       </c>
       <c r="H9">
-        <v>-0.293</v>
+        <v>-0.314</v>
       </c>
       <c r="I9">
-        <v>0.77</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11070,10 +11067,10 @@
         <v>-2.088</v>
       </c>
       <c r="H10">
-        <v>-1.06</v>
+        <v>-0.825</v>
       </c>
       <c r="I10">
-        <v>0.291</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11099,10 +11096,10 @@
         <v>-2.349</v>
       </c>
       <c r="H11">
-        <v>-1.25</v>
+        <v>-1.769</v>
       </c>
       <c r="I11">
-        <v>0.214</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11128,10 +11125,10 @@
         <v>0.32</v>
       </c>
       <c r="H12">
-        <v>0.167</v>
+        <v>0.235</v>
       </c>
       <c r="I12">
-        <v>0.868</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11157,10 +11154,10 @@
         <v>-0.189</v>
       </c>
       <c r="H13">
-        <v>-0.101</v>
+        <v>-0.123</v>
       </c>
       <c r="I13">
-        <v>0.92</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11186,10 +11183,10 @@
         <v>0.082</v>
       </c>
       <c r="H14">
-        <v>2.577</v>
+        <v>2.164</v>
       </c>
       <c r="I14">
-        <v>0.011</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11215,10 +11212,10 @@
         <v>0.032</v>
       </c>
       <c r="H15">
-        <v>0.926</v>
+        <v>0.866</v>
       </c>
       <c r="I15">
-        <v>0.356</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11244,10 +11241,10 @@
         <v>0.006</v>
       </c>
       <c r="H16">
-        <v>0.162</v>
+        <v>0.182</v>
       </c>
       <c r="I16">
-        <v>0.872</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11273,10 +11270,10 @@
         <v>-0.011</v>
       </c>
       <c r="H17">
-        <v>-0.312</v>
+        <v>-0.27</v>
       </c>
       <c r="I17">
-        <v>0.755</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11302,10 +11299,10 @@
         <v>0.051</v>
       </c>
       <c r="H18">
-        <v>1.537</v>
+        <v>0.907</v>
       </c>
       <c r="I18">
-        <v>0.127</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11331,10 +11328,10 @@
         <v>0.027</v>
       </c>
       <c r="H19">
-        <v>0.858</v>
+        <v>0.727</v>
       </c>
       <c r="I19">
-        <v>0.393</v>
+        <v>0.467</v>
       </c>
     </row>
   </sheetData>
@@ -11420,10 +11417,10 @@
         <v>-1.958</v>
       </c>
       <c r="I2">
-        <v>-0.358</v>
+        <v>-0.291</v>
       </c>
       <c r="J2">
-        <v>0.721</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11452,10 +11449,10 @@
         <v>-0.865</v>
       </c>
       <c r="I3">
-        <v>-0.155</v>
+        <v>-0.151</v>
       </c>
       <c r="J3">
-        <v>0.877</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11484,10 +11481,10 @@
         <v>0.702</v>
       </c>
       <c r="I4">
-        <v>0.108</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J4">
-        <v>0.914</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11516,10 +11513,10 @@
         <v>1.402</v>
       </c>
       <c r="I5">
-        <v>0.251</v>
+        <v>0.444</v>
       </c>
       <c r="J5">
-        <v>0.802</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11548,10 +11545,10 @@
         <v>-1.859</v>
       </c>
       <c r="I6">
-        <v>-0.355</v>
+        <v>-0.476</v>
       </c>
       <c r="J6">
-        <v>0.723</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11580,10 +11577,10 @@
         <v>2.811</v>
       </c>
       <c r="I7">
-        <v>0.5600000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="J7">
-        <v>0.576</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11609,13 +11606,13 @@
         <v>0.031</v>
       </c>
       <c r="H8">
-        <v>0.104</v>
+        <v>0.149</v>
       </c>
       <c r="I8">
-        <v>0.048</v>
+        <v>0.061</v>
       </c>
       <c r="J8">
-        <v>0.962</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11644,10 +11641,10 @@
         <v>0.191</v>
       </c>
       <c r="I9">
-        <v>0.08799999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="J9">
-        <v>0.93</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11676,10 +11673,10 @@
         <v>-0.694</v>
       </c>
       <c r="I10">
-        <v>-0.283</v>
+        <v>-0.217</v>
       </c>
       <c r="J10">
-        <v>0.777</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11708,10 +11705,10 @@
         <v>-2.496</v>
       </c>
       <c r="I11">
-        <v>-1.07</v>
+        <v>-1.653</v>
       </c>
       <c r="J11">
-        <v>0.287</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11740,10 +11737,10 @@
         <v>1.487</v>
       </c>
       <c r="I12">
-        <v>0.628</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J12">
-        <v>0.531</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11772,10 +11769,10 @@
         <v>-1.147</v>
       </c>
       <c r="I13">
-        <v>-0.494</v>
+        <v>-0.603</v>
       </c>
       <c r="J13">
-        <v>0.622</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11804,10 +11801,10 @@
         <v>0.074</v>
       </c>
       <c r="I14">
-        <v>1.865</v>
+        <v>2.008</v>
       </c>
       <c r="J14">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11836,10 +11833,10 @@
         <v>0.034</v>
       </c>
       <c r="I15">
-        <v>0.8139999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="J15">
-        <v>0.417</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11868,10 +11865,10 @@
         <v>0.017</v>
       </c>
       <c r="I16">
-        <v>0.383</v>
+        <v>0.404</v>
       </c>
       <c r="J16">
-        <v>0.703</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11900,10 +11897,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.197</v>
+        <v>-0.137</v>
       </c>
       <c r="J17">
-        <v>0.844</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11932,10 +11929,10 @@
         <v>0.079</v>
       </c>
       <c r="I18">
-        <v>1.932</v>
+        <v>1.294</v>
       </c>
       <c r="J18">
-        <v>0.056</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11964,10 +11961,10 @@
         <v>0.057</v>
       </c>
       <c r="I19">
-        <v>1.469</v>
+        <v>1.254</v>
       </c>
       <c r="J19">
-        <v>0.144</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -12038,10 +12035,10 @@
         <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F2">
         <v>160</v>
@@ -12053,10 +12050,10 @@
         <v>-4.839</v>
       </c>
       <c r="I2">
-        <v>-0.774</v>
+        <v>-0.615</v>
       </c>
       <c r="J2">
-        <v>0.44</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12070,10 +12067,10 @@
         <v>410</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F3">
         <v>160</v>
@@ -12085,10 +12082,10 @@
         <v>-3.034</v>
       </c>
       <c r="I3">
-        <v>-0.476</v>
+        <v>-0.674</v>
       </c>
       <c r="J3">
-        <v>0.635</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12102,10 +12099,10 @@
         <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F4">
         <v>160</v>
@@ -12117,10 +12114,10 @@
         <v>0.316</v>
       </c>
       <c r="I4">
-        <v>0.042</v>
+        <v>0.033</v>
       </c>
       <c r="J4">
-        <v>0.966</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12134,10 +12131,10 @@
         <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F5">
         <v>160</v>
@@ -12149,10 +12146,10 @@
         <v>-2.796</v>
       </c>
       <c r="I5">
-        <v>-0.438</v>
+        <v>-0.475</v>
       </c>
       <c r="J5">
-        <v>0.662</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12166,10 +12163,10 @@
         <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F6">
         <v>160</v>
@@ -12181,10 +12178,10 @@
         <v>-6.664</v>
       </c>
       <c r="I6">
-        <v>-1.116</v>
+        <v>-1.157</v>
       </c>
       <c r="J6">
-        <v>0.267</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12198,10 +12195,10 @@
         <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7">
         <v>160</v>
@@ -12213,10 +12210,10 @@
         <v>-1.708</v>
       </c>
       <c r="I7">
-        <v>-0.297</v>
+        <v>-0.238</v>
       </c>
       <c r="J7">
-        <v>0.767</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12227,13 +12224,13 @@
         <v>397</v>
       </c>
       <c r="C8" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F8">
         <v>160</v>
@@ -12242,13 +12239,13 @@
         <v>0.022</v>
       </c>
       <c r="H8">
-        <v>0.636</v>
+        <v>0.633</v>
       </c>
       <c r="I8">
-        <v>0.256</v>
+        <v>0.239</v>
       </c>
       <c r="J8">
-        <v>0.798</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12259,13 +12256,13 @@
         <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F9">
         <v>160</v>
@@ -12277,10 +12274,10 @@
         <v>0.852</v>
       </c>
       <c r="I9">
-        <v>0.343</v>
+        <v>0.553</v>
       </c>
       <c r="J9">
-        <v>0.732</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12291,13 +12288,13 @@
         <v>399</v>
       </c>
       <c r="C10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F10">
         <v>160</v>
@@ -12309,10 +12306,10 @@
         <v>-1.072</v>
       </c>
       <c r="I10">
-        <v>-0.382</v>
+        <v>-0.321</v>
       </c>
       <c r="J10">
-        <v>0.703</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12323,13 +12320,13 @@
         <v>400</v>
       </c>
       <c r="C11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F11">
         <v>160</v>
@@ -12341,10 +12338,10 @@
         <v>-0.669</v>
       </c>
       <c r="I11">
-        <v>-0.249</v>
+        <v>-0.268</v>
       </c>
       <c r="J11">
-        <v>0.803</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12355,10 +12352,10 @@
         <v>401</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E12" t="s">
         <v>275</v>
@@ -12373,10 +12370,10 @@
         <v>3.682</v>
       </c>
       <c r="I12">
-        <v>1.366</v>
+        <v>1.311</v>
       </c>
       <c r="J12">
-        <v>0.174</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12387,13 +12384,13 @@
         <v>402</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F13">
         <v>160</v>
@@ -12405,10 +12402,10 @@
         <v>1.903</v>
       </c>
       <c r="I13">
-        <v>0.716</v>
+        <v>0.798</v>
       </c>
       <c r="J13">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12419,13 +12416,13 @@
         <v>403</v>
       </c>
       <c r="C14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F14">
         <v>160</v>
@@ -12437,10 +12434,10 @@
         <v>0.091</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1.742</v>
       </c>
       <c r="J14">
-        <v>0.048</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12451,13 +12448,13 @@
         <v>404</v>
       </c>
       <c r="C15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F15">
         <v>160</v>
@@ -12469,10 +12466,10 @@
         <v>0.015</v>
       </c>
       <c r="I15">
-        <v>0.3</v>
+        <v>0.382</v>
       </c>
       <c r="J15">
-        <v>0.764</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12483,13 +12480,13 @@
         <v>405</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F16">
         <v>160</v>
@@ -12501,10 +12498,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
       <c r="J16">
-        <v>0.908</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12515,13 +12512,13 @@
         <v>406</v>
       </c>
       <c r="C17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F17">
         <v>160</v>
@@ -12533,10 +12530,10 @@
         <v>-0.017</v>
       </c>
       <c r="I17">
-        <v>-0.355</v>
+        <v>-0.208</v>
       </c>
       <c r="J17">
-        <v>0.723</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12547,13 +12544,13 @@
         <v>407</v>
       </c>
       <c r="C18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F18">
         <v>160</v>
@@ -12565,10 +12562,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I18">
-        <v>1.777</v>
+        <v>1.047</v>
       </c>
       <c r="J18">
-        <v>0.078</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12579,13 +12576,13 @@
         <v>408</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F19">
         <v>160</v>
@@ -12597,10 +12594,10 @@
         <v>0.057</v>
       </c>
       <c r="I19">
-        <v>1.267</v>
+        <v>1.126</v>
       </c>
       <c r="J19">
-        <v>0.208</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -12665,16 +12662,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F2">
         <v>160</v>
@@ -12686,10 +12683,10 @@
         <v>2.221</v>
       </c>
       <c r="I2">
-        <v>0.325</v>
+        <v>0.249</v>
       </c>
       <c r="J2">
-        <v>0.746</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12697,16 +12694,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F3">
         <v>160</v>
@@ -12718,10 +12715,10 @@
         <v>4.974</v>
       </c>
       <c r="I3">
-        <v>0.715</v>
+        <v>0.72</v>
       </c>
       <c r="J3">
-        <v>0.476</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12729,16 +12726,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F4">
         <v>160</v>
@@ -12750,10 +12747,10 @@
         <v>3.405</v>
       </c>
       <c r="I4">
-        <v>0.42</v>
+        <v>0.381</v>
       </c>
       <c r="J4">
-        <v>0.675</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12761,16 +12758,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F5">
         <v>160</v>
@@ -12782,10 +12779,10 @@
         <v>-1.843</v>
       </c>
       <c r="I5">
-        <v>-0.264</v>
+        <v>-0.343</v>
       </c>
       <c r="J5">
-        <v>0.792</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12793,16 +12790,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F6">
         <v>160</v>
@@ -12814,10 +12811,10 @@
         <v>-4.453</v>
       </c>
       <c r="I6">
-        <v>-0.681</v>
+        <v>-0.931</v>
       </c>
       <c r="J6">
-        <v>0.497</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12825,16 +12822,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F7">
         <v>160</v>
@@ -12846,10 +12843,10 @@
         <v>-4.83</v>
       </c>
       <c r="I7">
-        <v>-0.771</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="J7">
-        <v>0.442</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12857,16 +12854,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F8">
         <v>160</v>
@@ -12875,13 +12872,13 @@
         <v>0.018</v>
       </c>
       <c r="H8">
-        <v>-0.664</v>
+        <v>-0.657</v>
       </c>
       <c r="I8">
-        <v>-0.245</v>
+        <v>-0.23</v>
       </c>
       <c r="J8">
-        <v>0.8070000000000001</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12889,16 +12886,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F9">
         <v>160</v>
@@ -12910,10 +12907,10 @@
         <v>-0.755</v>
       </c>
       <c r="I9">
-        <v>-0.278</v>
+        <v>-0.307</v>
       </c>
       <c r="J9">
-        <v>0.782</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12921,16 +12918,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F10">
         <v>160</v>
@@ -12942,10 +12939,10 @@
         <v>-2.745</v>
       </c>
       <c r="I10">
-        <v>-0.899</v>
+        <v>-0.791</v>
       </c>
       <c r="J10">
-        <v>0.37</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12953,16 +12950,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F11">
         <v>160</v>
@@ -12974,10 +12971,10 @@
         <v>-2.349</v>
       </c>
       <c r="I11">
-        <v>-0.804</v>
+        <v>-0.912</v>
       </c>
       <c r="J11">
-        <v>0.423</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12985,16 +12982,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F12">
         <v>160</v>
@@ -13006,10 +13003,10 @@
         <v>3.385</v>
       </c>
       <c r="I12">
-        <v>1.148</v>
+        <v>1.263</v>
       </c>
       <c r="J12">
-        <v>0.253</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13017,16 +13014,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F13">
         <v>160</v>
@@ -13038,10 +13035,10 @@
         <v>3.35</v>
       </c>
       <c r="I13">
-        <v>1.159</v>
+        <v>1.049</v>
       </c>
       <c r="J13">
-        <v>0.249</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13049,16 +13046,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F14">
         <v>160</v>
@@ -13070,10 +13067,10 @@
         <v>0.131</v>
       </c>
       <c r="I14">
-        <v>2.663</v>
+        <v>2.47</v>
       </c>
       <c r="J14">
-        <v>0.008999999999999999</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13081,16 +13078,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F15">
         <v>160</v>
@@ -13102,10 +13099,10 @@
         <v>0.004</v>
       </c>
       <c r="I15">
-        <v>0.08500000000000001</v>
+        <v>0.141</v>
       </c>
       <c r="J15">
-        <v>0.9330000000000001</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13113,16 +13110,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F16">
         <v>160</v>
@@ -13134,10 +13131,10 @@
         <v>-0.019</v>
       </c>
       <c r="I16">
-        <v>-0.353</v>
+        <v>-0.451</v>
       </c>
       <c r="J16">
-        <v>0.725</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13145,16 +13142,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F17">
         <v>160</v>
@@ -13166,10 +13163,10 @@
         <v>0.005</v>
       </c>
       <c r="I17">
-        <v>0.096</v>
+        <v>0.068</v>
       </c>
       <c r="J17">
-        <v>0.923</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13177,16 +13174,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F18">
         <v>160</v>
@@ -13198,10 +13195,10 @@
         <v>0.063</v>
       </c>
       <c r="I18">
-        <v>1.212</v>
+        <v>0.862</v>
       </c>
       <c r="J18">
-        <v>0.228</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13209,16 +13206,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F19">
         <v>160</v>
@@ -13230,10 +13227,10 @@
         <v>0.048</v>
       </c>
       <c r="I19">
-        <v>0.971</v>
+        <v>1.028</v>
       </c>
       <c r="J19">
-        <v>0.334</v>
+        <v>0.304</v>
       </c>
     </row>
   </sheetData>
@@ -13298,16 +13295,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -13319,10 +13316,10 @@
         <v>0.214</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
       <c r="J2">
-        <v>0.96</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13330,16 +13327,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -13351,10 +13348,10 @@
         <v>5.693</v>
       </c>
       <c r="I3">
-        <v>1.335</v>
+        <v>1.43</v>
       </c>
       <c r="J3">
-        <v>0.185</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13362,16 +13359,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F4">
         <v>150</v>
@@ -13383,10 +13380,10 @@
         <v>5.314</v>
       </c>
       <c r="I4">
-        <v>1.103</v>
+        <v>0.831</v>
       </c>
       <c r="J4">
-        <v>0.273</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13394,13 +13391,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E5" t="s">
         <v>197</v>
@@ -13415,10 +13412,10 @@
         <v>3.61</v>
       </c>
       <c r="I5">
-        <v>0.843</v>
+        <v>0.978</v>
       </c>
       <c r="J5">
-        <v>0.401</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13426,16 +13423,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F6">
         <v>150</v>
@@ -13447,10 +13444,10 @@
         <v>0.041</v>
       </c>
       <c r="I6">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="J6">
-        <v>0.992</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13458,16 +13455,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -13479,10 +13476,10 @@
         <v>-2.203</v>
       </c>
       <c r="I7">
-        <v>-0.5590000000000001</v>
+        <v>-0.495</v>
       </c>
       <c r="J7">
-        <v>0.577</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13490,13 +13487,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E8" t="s">
         <v>202</v>
@@ -13508,13 +13505,13 @@
         <v>0.055</v>
       </c>
       <c r="H8">
-        <v>-1.034</v>
+        <v>-0.99</v>
       </c>
       <c r="I8">
-        <v>-0.618</v>
+        <v>-0.485</v>
       </c>
       <c r="J8">
-        <v>0.538</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13522,16 +13519,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F9">
         <v>150</v>
@@ -13543,10 +13540,10 @@
         <v>-2.321</v>
       </c>
       <c r="I9">
-        <v>-1.469</v>
+        <v>-1.727</v>
       </c>
       <c r="J9">
-        <v>0.145</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13554,16 +13551,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F10">
         <v>150</v>
@@ -13575,10 +13572,10 @@
         <v>-2.245</v>
       </c>
       <c r="I10">
-        <v>-1.233</v>
+        <v>-0.885</v>
       </c>
       <c r="J10">
-        <v>0.22</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13586,13 +13583,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E11" t="s">
         <v>205</v>
@@ -13607,10 +13604,10 @@
         <v>-1.967</v>
       </c>
       <c r="I11">
-        <v>-1.11</v>
+        <v>-1.189</v>
       </c>
       <c r="J11">
-        <v>0.269</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13618,16 +13615,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F12">
         <v>150</v>
@@ -13639,10 +13636,10 @@
         <v>0.886</v>
       </c>
       <c r="I12">
-        <v>0.483</v>
+        <v>0.655</v>
       </c>
       <c r="J12">
-        <v>0.63</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13650,16 +13647,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
-        <v>559</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F13">
         <v>150</v>
@@ -13671,10 +13668,10 @@
         <v>1.382</v>
       </c>
       <c r="I13">
-        <v>0.76</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="J13">
-        <v>0.449</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13682,16 +13679,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -13703,10 +13700,10 @@
         <v>0.065</v>
       </c>
       <c r="I14">
-        <v>2.111</v>
+        <v>1.913</v>
       </c>
       <c r="J14">
-        <v>0.037</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13714,16 +13711,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F15">
         <v>150</v>
@@ -13735,10 +13732,10 @@
         <v>0.054</v>
       </c>
       <c r="I15">
-        <v>1.68</v>
+        <v>2.122</v>
       </c>
       <c r="J15">
-        <v>0.096</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13746,16 +13743,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
         <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F16">
         <v>150</v>
@@ -13767,10 +13764,10 @@
         <v>-0.022</v>
       </c>
       <c r="I16">
-        <v>-0.645</v>
+        <v>-0.662</v>
       </c>
       <c r="J16">
-        <v>0.52</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13778,16 +13775,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F17">
         <v>150</v>
@@ -13799,10 +13796,10 @@
         <v>-0.031</v>
       </c>
       <c r="I17">
-        <v>-0.916</v>
+        <v>-0.728</v>
       </c>
       <c r="J17">
-        <v>0.362</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13810,16 +13807,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F18">
         <v>150</v>
@@ -13831,10 +13828,10 @@
         <v>0.027</v>
       </c>
       <c r="I18">
-        <v>0.825</v>
+        <v>0.595</v>
       </c>
       <c r="J18">
-        <v>0.411</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13842,16 +13839,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F19">
         <v>150</v>
@@ -13863,10 +13860,10 @@
         <v>0.022</v>
       </c>
       <c r="I19">
-        <v>0.706</v>
+        <v>0.618</v>
       </c>
       <c r="J19">
-        <v>0.482</v>
+        <v>0.536</v>
       </c>
     </row>
   </sheetData>
